--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\java\day\testimportexcel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B8B5D-25C9-46EB-94FE-8537CB9155E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF5E71-1751-4A58-A3D4-F08978BA7413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-1010409]d/m/yyyy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="0.000000_ ;\-0.000000\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -220,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -231,6 +232,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,7 +548,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -559,61 +562,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
@@ -625,13 +628,13 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>123123</v>
       </c>
       <c r="E5" s="4">
@@ -651,13 +654,13 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>123123</v>
       </c>
       <c r="E6" s="4">
@@ -677,13 +680,13 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>123123</v>
       </c>
       <c r="E7" s="4">
@@ -703,13 +706,13 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>123123</v>
       </c>
       <c r="E8" s="4">
@@ -729,13 +732,13 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>123123</v>
       </c>
       <c r="E9" s="4">
@@ -755,13 +758,13 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>123123</v>
       </c>
       <c r="E10" s="4">
@@ -781,13 +784,13 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <v>123123</v>
       </c>
       <c r="E11" s="4">
@@ -807,13 +810,13 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>123123</v>
       </c>
       <c r="E12" s="4">
@@ -833,13 +836,13 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>123123</v>
       </c>
       <c r="E13" s="4">
@@ -859,13 +862,13 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>123123</v>
       </c>
       <c r="E14" s="4">
@@ -885,13 +888,13 @@
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>123123</v>
       </c>
       <c r="E15" s="4">
@@ -911,13 +914,13 @@
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="9">
         <v>123123</v>
       </c>
       <c r="E16" s="4">
@@ -937,13 +940,13 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="8">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <v>123123</v>
       </c>
       <c r="E17" s="4">
@@ -963,13 +966,13 @@
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="9">
         <v>123123</v>
       </c>
       <c r="E18" s="4">
@@ -989,13 +992,13 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="8">
         <v>11</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <v>123123</v>
       </c>
       <c r="E19" s="4">
@@ -1015,13 +1018,13 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="8">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <v>123123</v>
       </c>
       <c r="E20" s="4">
@@ -1041,13 +1044,13 @@
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="8">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="9">
         <v>123123</v>
       </c>
       <c r="E21" s="4">
@@ -1067,13 +1070,13 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <v>123123</v>
       </c>
       <c r="E22" s="4">
@@ -1093,13 +1096,13 @@
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="8">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="9">
         <v>123123</v>
       </c>
       <c r="E23" s="4">
@@ -1119,13 +1122,13 @@
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="8">
         <v>11</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="9">
         <v>123123</v>
       </c>
       <c r="E24" s="4">
@@ -1145,13 +1148,13 @@
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="8">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="9">
         <v>123123</v>
       </c>
       <c r="E25" s="4">
@@ -1171,13 +1174,13 @@
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="8">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <v>123123</v>
       </c>
       <c r="E26" s="4">
@@ -1197,13 +1200,13 @@
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="8">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="9">
         <v>123123</v>
       </c>
       <c r="E27" s="4">
@@ -1223,13 +1226,13 @@
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="8">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="9">
         <v>123123</v>
       </c>
       <c r="E28" s="4">
@@ -1249,13 +1252,13 @@
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="8">
         <v>11</v>
       </c>
       <c r="C29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="9">
         <v>123123</v>
       </c>
       <c r="E29" s="4">
@@ -1275,13 +1278,13 @@
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="8">
         <v>11</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="9">
         <v>123123</v>
       </c>
       <c r="E30" s="4">
@@ -1301,13 +1304,13 @@
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="8">
         <v>11</v>
       </c>
       <c r="C31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="9">
         <v>123123</v>
       </c>
       <c r="E31" s="4">
@@ -1327,13 +1330,13 @@
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="8">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <v>123123</v>
       </c>
       <c r="E32" s="4">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\java\day\testimportexcel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF5E71-1751-4A58-A3D4-F08978BA7413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7A7EE-2DF3-480A-B156-467DFB3157B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="2895" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
-  <si>
-    <t>aString</t>
-  </si>
   <si>
     <t>aInteger</t>
   </si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>aString1</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -563,19 +563,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -588,10 +588,10 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
@@ -603,10 +603,10 @@
       <c r="D3" s="11"/>
       <c r="E3" s="18"/>
       <c r="F3" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -618,15 +618,15 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8">
         <v>11</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>11</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8">
         <v>11</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8">
         <v>11</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8">
         <v>11</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8">
         <v>11</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8">
         <v>11</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>11</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8">
         <v>11</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8">
         <v>11</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8">
         <v>11</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8">
         <v>11</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8">
         <v>11</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8">
         <v>11</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8">
         <v>11</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="8">
         <v>11</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8">
         <v>11</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8">
         <v>11</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="8">
         <v>11</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="8">
         <v>11</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="8">
         <v>11</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="8">
         <v>11</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="8">
         <v>11</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="8">
         <v>11</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="8">
         <v>11</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="8">
         <v>11</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="8">
         <v>11</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="8">
         <v>11</v>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\java\day\testimportexcel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7A7EE-2DF3-480A-B156-467DFB3157B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E8528A-B55F-4E03-BC3B-017013A5F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="2895" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,8 @@
     <t>Test</t>
   </si>
   <si>
-    <t>aString1</t>
+    <t>aString
+ối dồi ôi</t>
   </si>
 </sst>
 </file>
@@ -221,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -263,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,7 +566,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\java\day\testimportexcel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E8528A-B55F-4E03-BC3B-017013A5F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8128E3-7903-4704-A1BF-5D14DA78B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2895" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,12 +236,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,9 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,7 +552,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,24 +566,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -591,36 +591,36 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
@@ -652,6 +652,9 @@
       </c>
       <c r="H5" s="7">
         <v>123.12</v>
+      </c>
+      <c r="I5">
+        <v>121212</v>
       </c>
     </row>
     <row r="6" spans="1:9">
